--- a/mbs-EP-v.1.0.1/Excel Files/flyball_governor_damper.xlsx
+++ b/mbs-EP-v.1.0.1/Excel Files/flyball_governor_damper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.1\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080D4DA1-9DF6-4438-8EDB-56D3FA24EF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFEA209-5C5E-4F39-BC60-2C5D714B380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="251">
   <si>
     <t>Mass</t>
   </si>
@@ -1956,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C7" s="73"/>
       <c r="D7" s="53">
-        <v>-9806.65</v>
+        <v>-9806.5</v>
       </c>
       <c r="E7" s="54" t="s">
         <v>110</v>
@@ -2314,9 +2314,7 @@
         <v>146</v>
       </c>
       <c r="C14" s="71"/>
-      <c r="D14" s="69" t="s">
-        <v>242</v>
-      </c>
+      <c r="D14" s="69"/>
       <c r="E14" s="44" t="s">
         <v>126</v>
       </c>
@@ -2345,9 +2343,7 @@
         <v>147</v>
       </c>
       <c r="C15" s="71"/>
-      <c r="D15" s="69" t="s">
-        <v>242</v>
-      </c>
+      <c r="D15" s="69"/>
       <c r="E15" s="44" t="s">
         <v>126</v>
       </c>
@@ -2378,9 +2374,7 @@
         <v>149</v>
       </c>
       <c r="C16" s="71"/>
-      <c r="D16" s="69" t="s">
-        <v>242</v>
-      </c>
+      <c r="D16" s="69"/>
       <c r="E16" s="50" t="s">
         <v>126</v>
       </c>
@@ -2413,9 +2407,7 @@
         <v>148</v>
       </c>
       <c r="C17" s="71"/>
-      <c r="D17" s="69" t="s">
-        <v>242</v>
-      </c>
+      <c r="D17" s="69"/>
       <c r="E17" s="50" t="s">
         <v>126</v>
       </c>
@@ -2580,7 +2572,9 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
-      <c r="D22" s="44"/>
+      <c r="D22" s="44">
+        <v>1</v>
+      </c>
       <c r="E22" s="106"/>
       <c r="F22" s="98"/>
       <c r="G22" s="98"/>
@@ -2914,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
@@ -6815,7 +6809,7 @@
   <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8011,8 +8005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" activeCellId="1" sqref="B10 B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mbs-EP-v.1.0.1/Excel Files/flyball_governor_damper.xlsx
+++ b/mbs-EP-v.1.0.1/Excel Files/flyball_governor_damper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.1\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFEA209-5C5E-4F39-BC60-2C5D714B380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91516920-16C4-494E-B6CC-DC10A896D378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="253">
   <si>
     <t>Mass</t>
   </si>
@@ -841,6 +841,12 @@
   </si>
   <si>
     <t>Null Force Length</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Animation Video</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1237,13 +1243,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1301,6 +1301,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1325,12 +1328,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1522,6 +1519,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1957,7 +1981,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,238 +2000,238 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
-      <c r="J2" s="70" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="J2" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="53">
+      <c r="C3" s="72"/>
+      <c r="D3" s="51">
         <v>10</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="80" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="47" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="45" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="53">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="51">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="45" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="47" t="s">
+      <c r="O4" s="92"/>
+      <c r="P4" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="61" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="53" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="47" t="s">
+      <c r="J5" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="47" t="s">
+      <c r="L5" s="80"/>
+      <c r="M5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="47" t="s">
+      <c r="O5" s="92"/>
+      <c r="P5" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="Q5" s="63" t="s">
+      <c r="Q5" s="61" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="83"/>
-      <c r="M6" s="47" t="s">
+      <c r="L6" s="80"/>
+      <c r="M6" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="47" t="s">
+      <c r="O6" s="92"/>
+      <c r="P6" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="Q6" s="63" t="s">
+      <c r="Q6" s="61" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="53">
+      <c r="C7" s="72"/>
+      <c r="D7" s="51">
         <v>-9806.5</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="83"/>
-      <c r="M7" s="47" t="s">
+      <c r="L7" s="80"/>
+      <c r="M7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="47" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="61" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="53" t="s">
+      <c r="C8" s="72"/>
+      <c r="D8" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="47" t="s">
+      <c r="L8" s="80"/>
+      <c r="M8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="95"/>
-      <c r="P8" s="47" t="s">
+      <c r="O8" s="92"/>
+      <c r="P8" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="Q8" s="63" t="s">
+      <c r="Q8" s="61" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="47" t="s">
+      <c r="L9" s="80"/>
+      <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="95"/>
-      <c r="P9" s="47" t="s">
+      <c r="O9" s="92"/>
+      <c r="P9" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="Q9" s="63" t="s">
+      <c r="Q9" s="61" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2218,644 +2242,666 @@
       <c r="K10" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="47" t="s">
+      <c r="L10" s="80"/>
+      <c r="M10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="95"/>
-      <c r="P10" s="52" t="s">
+      <c r="O10" s="92"/>
+      <c r="P10" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="Q10" s="63" t="s">
+      <c r="Q10" s="61" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="47" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="N11" s="47" t="s">
+      <c r="N11" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="O11" s="95"/>
-      <c r="P11" s="52" t="s">
+      <c r="O11" s="92"/>
+      <c r="P11" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="Q11" s="63" t="s">
+      <c r="Q11" s="61" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="47" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="N12" s="47" t="s">
+      <c r="N12" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="O12" s="95"/>
-      <c r="P12" s="47" t="s">
+      <c r="O12" s="92"/>
+      <c r="P12" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="Q12" s="63" t="s">
+      <c r="Q12" s="61" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="44" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="47" t="s">
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="47" t="s">
+      <c r="N13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="95"/>
-      <c r="P13" s="52" t="s">
+      <c r="O13" s="92"/>
+      <c r="P13" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="Q13" s="63" t="s">
+      <c r="Q13" s="61" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="44" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="47" t="s">
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="N14" s="47" t="s">
+      <c r="N14" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="O14" s="95"/>
-      <c r="P14" s="52" t="s">
+      <c r="O14" s="92"/>
+      <c r="P14" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="Q14" s="63" t="s">
+      <c r="Q14" s="61" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="44" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="J15" s="80" t="s">
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="J15" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="81"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="47" t="s">
+      <c r="K15" s="78"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="47" t="s">
+      <c r="N15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="95"/>
-      <c r="P15" s="52" t="s">
+      <c r="O15" s="92"/>
+      <c r="P15" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="Q15" s="63" t="s">
+      <c r="Q15" s="61" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="50" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="J16" s="47" t="s">
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="J16" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="83"/>
-      <c r="M16" s="47" t="s">
+      <c r="L16" s="80"/>
+      <c r="M16" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="N16" s="47" t="s">
+      <c r="N16" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="95"/>
-      <c r="P16" s="47" t="s">
+      <c r="O16" s="92"/>
+      <c r="P16" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="Q16" s="63" t="s">
+      <c r="Q16" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="50" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="J17" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="47" t="s">
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="J17" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="83"/>
-      <c r="M17" s="80" t="s">
+      <c r="L17" s="80"/>
+      <c r="M17" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="N17" s="81"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="52" t="s">
+      <c r="N17" s="78"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="Q17" s="63" t="s">
+      <c r="Q17" s="61" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="46" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="J18" s="47" t="s">
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="J18" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="L18" s="83"/>
-      <c r="M18" s="55" t="s">
+      <c r="L18" s="80"/>
+      <c r="M18" s="53" t="s">
         <v>163</v>
       </c>
       <c r="N18" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="O18" s="95"/>
-      <c r="P18" s="52" t="s">
+      <c r="O18" s="92"/>
+      <c r="P18" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="Q18" s="63" t="s">
+      <c r="Q18" s="61" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="50" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="J19" s="47" t="s">
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="J19" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="83"/>
-      <c r="M19" s="48" t="s">
+      <c r="L19" s="80"/>
+      <c r="M19" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="48" t="s">
+      <c r="N19" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="95"/>
-      <c r="P19" s="52" t="s">
+      <c r="O19" s="92"/>
+      <c r="P19" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="Q19" s="63" t="s">
+      <c r="Q19" s="61" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="84"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="J20" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="80"/>
+      <c r="M20" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="92"/>
+      <c r="P20" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q20" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="J21" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="80"/>
+      <c r="M21" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="92"/>
+      <c r="P21" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q21" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="44">
-        <v>3</v>
-      </c>
-      <c r="E20" s="105" t="s">
+      <c r="C22" s="97"/>
+      <c r="D22" s="68">
+        <v>2</v>
+      </c>
+      <c r="E22" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="98" t="s">
+      <c r="F22" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="51"/>
-      <c r="J20" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="83"/>
-      <c r="M20" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="N20" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="O20" s="95"/>
-      <c r="P20" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q20" s="63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="44">
-        <v>2</v>
-      </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="51"/>
-      <c r="J21" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="N21" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="O21" s="95"/>
-      <c r="P21" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q21" s="63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="44">
-        <v>1</v>
-      </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="51"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="143"/>
       <c r="J22" s="32" t="s">
         <v>111</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="84"/>
-      <c r="M22" s="48" t="s">
+      <c r="L22" s="81"/>
+      <c r="M22" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="N22" s="47" t="s">
+      <c r="N22" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="O22" s="95"/>
-      <c r="P22" s="52" t="s">
+      <c r="O22" s="92"/>
+      <c r="P22" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="Q22" s="63" t="s">
+      <c r="Q22" s="61" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="101"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="51"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="52" t="s">
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="68">
+        <v>3</v>
+      </c>
+      <c r="E23" s="103"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="146"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="Q23" s="64" t="s">
+      <c r="Q23" s="62" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="51"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="95"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="92"/>
       <c r="P24" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="Q24" s="64" t="s">
+      <c r="Q24" s="62" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="51"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="95"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="146"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="92"/>
       <c r="P25" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="Q25" s="64" t="s">
+      <c r="Q25" s="62" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="51"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="95"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="146"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="92"/>
       <c r="P26" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="Q26" s="64" t="s">
+      <c r="Q26" s="62" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="103"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="51"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="95"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="146"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="92"/>
       <c r="P27" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="Q27" s="64" t="s">
+      <c r="Q27" s="62" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="95"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="92"/>
       <c r="P28" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="Q28" s="64" t="s">
+      <c r="Q28" s="62" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="95"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="149"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="92"/>
       <c r="P29" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="Q29" s="64" t="s">
+      <c r="Q29" s="62" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="95"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="92"/>
       <c r="P30" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="Q30" s="64" t="s">
+      <c r="Q30" s="62" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="88"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="95"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="92"/>
       <c r="P31" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="Q31" s="64" t="s">
+      <c r="Q31" s="62" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="88"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="95"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="92"/>
       <c r="P32" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="Q32" s="64" t="s">
+      <c r="Q32" s="62" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="88"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="95"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="92"/>
       <c r="P33" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="64" t="s">
+      <c r="Q33" s="62" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="88"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="95"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="92"/>
       <c r="P34" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="Q34" s="64" t="s">
+      <c r="Q34" s="62" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="88"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="95"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="92"/>
       <c r="P35" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="Q35" s="64" t="s">
+      <c r="Q35" s="62" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="88"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="95"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="92"/>
       <c r="P36" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="Q36" s="64" t="s">
+      <c r="Q36" s="62" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="88"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="95"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="92"/>
       <c r="P37" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="Q37" s="64" t="s">
+      <c r="Q37" s="62" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="91"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="95"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="92"/>
       <c r="P38" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="Q38" s="64" t="s">
+      <c r="Q38" s="62" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2863,12 +2909,14 @@
       <c r="P39" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="Q39" s="64" t="s">
+      <c r="Q39" s="62" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:H29"/>
     <mergeCell ref="J23:N38"/>
     <mergeCell ref="O3:O38"/>
     <mergeCell ref="B18:C18"/>
@@ -2877,10 +2925,11 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F20:G27"/>
-    <mergeCell ref="B20:C27"/>
-    <mergeCell ref="E20:E27"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C29"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2890,7 +2939,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F13:H19"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
@@ -2908,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC35" sqref="AC35"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,118 +2976,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="71" t="s">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71" t="s">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="109" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109" t="s">
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109" t="s">
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="71" t="s">
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71" t="s">
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="98" t="s">
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="109" t="s">
+      <c r="S2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="71" t="s">
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="96" t="s">
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="71" t="s">
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71" t="s">
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71" t="s">
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3093,8 +3141,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="98"/>
-      <c r="S3" s="108"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="105"/>
       <c r="T3" s="16" t="s">
         <v>63</v>
       </c>
@@ -3270,7 +3318,7 @@
       <c r="B5" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="64">
         <v>0</v>
       </c>
       <c r="D5" s="16">
@@ -3383,7 +3431,7 @@
       <c r="B6" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="64">
         <v>0</v>
       </c>
       <c r="D6" s="16">
@@ -3454,10 +3502,10 @@
       <c r="Y6" s="30">
         <v>0</v>
       </c>
-      <c r="Z6" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="30">
+      <c r="Z6" s="66">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="67">
         <v>0</v>
       </c>
       <c r="AB6" s="30">
@@ -3553,7 +3601,7 @@
         <f>2.9054586*10^5</f>
         <v>290545.86</v>
       </c>
-      <c r="U7" s="66">
+      <c r="U7" s="64">
         <f>2.9054586*10^5</f>
         <v>290545.86</v>
       </c>
@@ -3607,11 +3655,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+    <row r="8" spans="1:37" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64">
         <v>5</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="64" t="s">
         <v>246</v>
       </c>
       <c r="C8" s="17">
@@ -3623,103 +3671,103 @@
       <c r="E8" s="17">
         <v>0</v>
       </c>
-      <c r="F8" s="65">
-        <v>0</v>
-      </c>
-      <c r="G8" s="65">
-        <v>0</v>
-      </c>
-      <c r="H8" s="65">
-        <v>0</v>
-      </c>
-      <c r="I8" s="65">
-        <v>0</v>
-      </c>
-      <c r="J8" s="65">
-        <v>0</v>
-      </c>
-      <c r="K8" s="65">
-        <v>0</v>
-      </c>
-      <c r="L8" s="66">
-        <v>0</v>
-      </c>
-      <c r="M8" s="66">
-        <v>0</v>
-      </c>
-      <c r="N8" s="66">
-        <v>0</v>
-      </c>
-      <c r="O8" s="66">
-        <v>0</v>
-      </c>
-      <c r="P8" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="65">
+      <c r="F8" s="63">
+        <v>0</v>
+      </c>
+      <c r="G8" s="63">
+        <v>0</v>
+      </c>
+      <c r="H8" s="63">
+        <v>0</v>
+      </c>
+      <c r="I8" s="63">
+        <v>0</v>
+      </c>
+      <c r="J8" s="63">
+        <v>0</v>
+      </c>
+      <c r="K8" s="63">
+        <v>0</v>
+      </c>
+      <c r="L8" s="64">
+        <v>0</v>
+      </c>
+      <c r="M8" s="64">
+        <v>0</v>
+      </c>
+      <c r="N8" s="64">
+        <v>0</v>
+      </c>
+      <c r="O8" s="64">
+        <v>0</v>
+      </c>
+      <c r="P8" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="63">
         <v>1</v>
       </c>
-      <c r="R8" s="65">
+      <c r="R8" s="63">
         <v>-0.52359900000000004</v>
       </c>
-      <c r="S8" s="65">
+      <c r="S8" s="63">
         <v>6.2439999999999998</v>
       </c>
-      <c r="T8" s="65">
+      <c r="T8" s="63">
         <f>2.9054586*10^5</f>
         <v>290545.86</v>
       </c>
-      <c r="U8" s="65">
+      <c r="U8" s="63">
         <f>2.9054586*10^5</f>
         <v>290545.86</v>
       </c>
-      <c r="V8" s="65">
+      <c r="V8" s="63">
         <f>1.1975358*10^4</f>
         <v>11975.358</v>
       </c>
-      <c r="W8" s="65">
-        <v>0</v>
-      </c>
-      <c r="X8" s="65">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="65">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="65">
+      <c r="W8" s="63">
+        <v>0</v>
+      </c>
+      <c r="X8" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="63">
         <v>0</v>
       </c>
     </row>
@@ -6808,7 +6856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -6829,16 +6877,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6869,11 +6917,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6929,19 +6977,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6966,16 +7014,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="114" t="s">
+      <c r="G6" s="112"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -7011,22 +7059,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7051,21 +7099,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113" t="s">
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113" t="s">
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7119,19 +7167,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7156,16 +7204,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="113" t="s">
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7251,29 +7299,29 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>5</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="47">
         <v>3</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="47">
         <v>5</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="47">
         <v>50</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="47">
         <v>1000</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="47">
         <v>0</v>
       </c>
       <c r="I16" s="18">
@@ -7307,19 +7355,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7344,16 +7392,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="113" t="s">
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
@@ -7390,19 +7438,19 @@
       <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
@@ -7427,16 +7475,16 @@
       <c r="E23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="112" t="s">
+      <c r="F23" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="113" t="s">
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
@@ -7472,22 +7520,22 @@
     </row>
     <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
@@ -7505,44 +7553,44 @@
       <c r="E27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="113" t="s">
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113" t="s">
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
     </row>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
@@ -7560,26 +7608,26 @@
       <c r="E31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="114" t="s">
+      <c r="F31" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="114" t="s">
+      <c r="G31" s="112"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="115"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="113" t="s">
+      <c r="J31" s="112"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113" t="s">
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -7602,14 +7650,14 @@
     </row>
     <row r="33" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -7683,12 +7731,12 @@
       <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -7760,15 +7808,15 @@
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="119"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
@@ -7788,11 +7836,11 @@
       <c r="D43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
@@ -7911,7 +7959,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B10:B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7925,18 +7973,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -7954,11 +8002,11 @@
       <c r="E2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="122"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="25" t="s">
         <v>50</v>
       </c>
@@ -7970,13 +8018,13 @@
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="49"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I4" s="26"/>
@@ -8006,7 +8054,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8029,58 +8077,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="128" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="130"/>
-      <c r="V2" s="135" t="s">
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="127"/>
+      <c r="V2" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
     </row>
     <row r="3" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -8098,17 +8146,17 @@
       <c r="E3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="140" t="s">
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="67" t="s">
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="65" t="s">
         <v>250</v>
       </c>
       <c r="M3" s="40" t="s">
@@ -8126,132 +8174,132 @@
       <c r="Q3" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="139" t="s">
+      <c r="R3" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="S3" s="139"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
+      <c r="S3" s="136"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="18"/>
       <c r="N4" s="41"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="135"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="18"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="135"/>
-      <c r="AA5" s="135"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135"/>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
     </row>
     <row r="7" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="V7" s="135"/>
-      <c r="W7" s="135"/>
-      <c r="X7" s="135"/>
-      <c r="Y7" s="135"/>
-      <c r="Z7" s="135"/>
-      <c r="AA7" s="135"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="V7" s="132"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="132"/>
+      <c r="Y7" s="132"/>
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="132"/>
     </row>
     <row r="8" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="143" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="143"/>
-      <c r="V8" s="135"/>
-      <c r="W8" s="135"/>
-      <c r="X8" s="135"/>
-      <c r="Y8" s="135"/>
-      <c r="Z8" s="135"/>
-      <c r="AA8" s="135"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="132"/>
     </row>
     <row r="9" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
@@ -8269,16 +8317,16 @@
       <c r="E9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="136" t="s">
+      <c r="F9" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="140" t="s">
+      <c r="G9" s="134"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="141"/>
-      <c r="K9" s="142"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="139"/>
       <c r="L9" s="40" t="s">
         <v>115</v>
       </c>
@@ -8294,132 +8342,136 @@
       <c r="P9" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="136" t="s">
+      <c r="Q9" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="R9" s="138"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49">
+      <c r="B10" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47">
         <v>2</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="47">
         <v>4</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="47">
         <v>-50</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="47">
         <v>500</v>
       </c>
-      <c r="H10" s="49">
-        <v>0</v>
-      </c>
-      <c r="I10" s="49">
+      <c r="H10" s="47">
+        <v>0</v>
+      </c>
+      <c r="I10" s="47">
         <v>-460</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="47">
         <v>750</v>
       </c>
-      <c r="K10" s="49">
-        <v>0</v>
-      </c>
-      <c r="L10" s="49">
+      <c r="K10" s="47">
+        <v>0</v>
+      </c>
+      <c r="L10" s="47">
         <v>40</v>
       </c>
       <c r="M10" s="26"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49">
+      <c r="B11" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47">
         <v>2</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="47">
         <v>5</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="47">
         <v>50</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="47">
         <v>500</v>
       </c>
-      <c r="H11" s="49">
-        <v>0</v>
-      </c>
-      <c r="I11" s="49">
+      <c r="H11" s="47">
+        <v>0</v>
+      </c>
+      <c r="I11" s="47">
         <v>460</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="47">
         <v>750</v>
       </c>
-      <c r="K11" s="49">
-        <v>0</v>
-      </c>
-      <c r="L11" s="49">
+      <c r="K11" s="47">
+        <v>0</v>
+      </c>
+      <c r="L11" s="47">
         <v>40</v>
       </c>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Q12" s="49"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
+      <c r="Q12" s="47"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="49"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="47"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
     </row>
     <row r="14" spans="1:27" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
@@ -8437,28 +8489,28 @@
       <c r="E14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="125" t="s">
+      <c r="F14" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="132" t="s">
+      <c r="J14" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="133"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="131" t="s">
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
       <c r="P14" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="49"/>
+      <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
@@ -8471,13 +8523,13 @@
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="49"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
-      <c r="Q15" s="49"/>
+      <c r="Q15" s="47"/>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -8493,7 +8545,7 @@
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="49"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -8505,95 +8557,95 @@
       <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="96" t="s">
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="J18" s="110"/>
-      <c r="K18" s="97"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="94"/>
       <c r="L18" s="33" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -8639,291 +8691,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="F1" s="74" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="F1" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="I1" s="74" t="s">
+      <c r="G1" s="75"/>
+      <c r="I1" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="132" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="F3" s="62" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="F3" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="F4" s="62" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="F4" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="F5" s="62" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="F5" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="F6" s="62" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="61" t="s">
         <v>177</v>
       </c>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="F8" s="62" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="F8" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="61" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="61" t="s">
         <v>179</v>
       </c>
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="F10" s="62" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="F10" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="61" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="F11" s="62" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="F11" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="61" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="F12" s="62" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="F12" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="61" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="F13" s="62" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="F13" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="61" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="F14" s="62" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="F14" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="61" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="F15" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="F16" s="62" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="F16" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="61" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="F17" s="62" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="F17" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="61" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="F18" s="62" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="F18" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="61" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="F19" s="62" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="F19" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="61" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="F20" s="62" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="F20" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49">
+      <c r="N20" s="47"/>
+      <c r="O20" s="47">
         <v>2</v>
       </c>
-      <c r="P20" s="49">
+      <c r="P20" s="47">
         <v>4</v>
       </c>
-      <c r="Q20" s="49">
+      <c r="Q20" s="47">
         <v>-50</v>
       </c>
-      <c r="R20" s="49">
+      <c r="R20" s="47">
         <v>500</v>
       </c>
-      <c r="S20" s="49">
-        <v>0</v>
-      </c>
-      <c r="T20" s="49">
+      <c r="S20" s="47">
+        <v>0</v>
+      </c>
+      <c r="T20" s="47">
         <v>-460</v>
       </c>
-      <c r="U20" s="49">
+      <c r="U20" s="47">
         <v>750</v>
       </c>
-      <c r="V20" s="49">
-        <v>0</v>
-      </c>
-      <c r="W20" s="49">
+      <c r="V20" s="47">
+        <v>0</v>
+      </c>
+      <c r="W20" s="47">
         <v>500</v>
       </c>
       <c r="X20" s="18">
@@ -8931,45 +8983,45 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="F21" s="62" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="F21" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49" t="s">
+      <c r="L21" s="47"/>
+      <c r="M21" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49">
+      <c r="N21" s="47"/>
+      <c r="O21" s="47">
         <v>2</v>
       </c>
-      <c r="P21" s="49">
+      <c r="P21" s="47">
         <v>5</v>
       </c>
-      <c r="Q21" s="49">
+      <c r="Q21" s="47">
         <v>50</v>
       </c>
-      <c r="R21" s="49">
+      <c r="R21" s="47">
         <v>500</v>
       </c>
-      <c r="S21" s="49">
-        <v>0</v>
-      </c>
-      <c r="T21" s="49">
+      <c r="S21" s="47">
+        <v>0</v>
+      </c>
+      <c r="T21" s="47">
         <v>460</v>
       </c>
-      <c r="U21" s="49">
+      <c r="U21" s="47">
         <v>750</v>
       </c>
-      <c r="V21" s="49">
-        <v>0</v>
-      </c>
-      <c r="W21" s="49">
+      <c r="V21" s="47">
+        <v>0</v>
+      </c>
+      <c r="W21" s="47">
         <v>500</v>
       </c>
       <c r="X21" s="18">
@@ -8977,283 +9029,283 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="F22" s="62" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="F22" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="62" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
       <c r="F23" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="62" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
       <c r="F24" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="M24" s="49" t="s">
+      <c r="M24" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49">
+      <c r="N24" s="47"/>
+      <c r="O24" s="47">
         <v>2</v>
       </c>
-      <c r="P24" s="49">
+      <c r="P24" s="47">
         <v>4</v>
       </c>
-      <c r="Q24" s="49">
+      <c r="Q24" s="47">
         <v>-50</v>
       </c>
-      <c r="R24" s="49">
+      <c r="R24" s="47">
         <v>500</v>
       </c>
-      <c r="S24" s="49">
-        <v>0</v>
-      </c>
-      <c r="T24" s="49">
+      <c r="S24" s="47">
+        <v>0</v>
+      </c>
+      <c r="T24" s="47">
         <v>-460</v>
       </c>
-      <c r="U24" s="49">
+      <c r="U24" s="47">
         <v>750</v>
       </c>
-      <c r="V24" s="49">
-        <v>0</v>
-      </c>
-      <c r="W24" s="49">
+      <c r="V24" s="47">
+        <v>0</v>
+      </c>
+      <c r="W24" s="47">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
       <c r="F25" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="M25" s="49" t="s">
+      <c r="M25" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49">
+      <c r="N25" s="47"/>
+      <c r="O25" s="47">
         <v>2</v>
       </c>
-      <c r="P25" s="49">
+      <c r="P25" s="47">
         <v>5</v>
       </c>
-      <c r="Q25" s="49">
+      <c r="Q25" s="47">
         <v>50</v>
       </c>
-      <c r="R25" s="49">
+      <c r="R25" s="47">
         <v>500</v>
       </c>
-      <c r="S25" s="49">
-        <v>0</v>
-      </c>
-      <c r="T25" s="49">
+      <c r="S25" s="47">
+        <v>0</v>
+      </c>
+      <c r="T25" s="47">
         <v>460</v>
       </c>
-      <c r="U25" s="49">
+      <c r="U25" s="47">
         <v>750</v>
       </c>
-      <c r="V25" s="49">
-        <v>0</v>
-      </c>
-      <c r="W25" s="49">
+      <c r="V25" s="47">
+        <v>0</v>
+      </c>
+      <c r="W25" s="47">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
       <c r="F26" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="62" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
       <c r="F27" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="62" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
       <c r="F28" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="62" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
       <c r="F29" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="62" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
       <c r="F30" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="62" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
       <c r="F31" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="62" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
       <c r="F32" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="G32" s="62" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
       <c r="F33" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="G33" s="64" t="s">
+      <c r="G33" s="62" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
       <c r="F34" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="G34" s="62" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
       <c r="F35" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="G35" s="64" t="s">
+      <c r="G35" s="62" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
       <c r="F36" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="62" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
       <c r="F37" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="64" t="s">
+      <c r="G37" s="62" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
       <c r="F38" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="62" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="4">
